--- a/cards/pos_terminal_status/pos_terminal_status.xlsx
+++ b/cards/pos_terminal_status/pos_terminal_status.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,92 +440,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_emitted_at</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>pst_code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>pst_labe</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>431a9c04-da43-4101-8bbb-2cded7053cfb</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Inactive</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/POS_TERMINAL_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45511.29527901154</v>
+      <c r="C2" s="2" t="n">
+        <v>45511.2952790162</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0e96ddbe-c889-48cb-bd2b-497b27b4d8d2</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/POS_TERMINAL_STATUS/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45511.29527901154</v>
+      <c r="C3" s="2" t="n">
+        <v>45511.2952790162</v>
       </c>
     </row>
   </sheetData>

--- a/cards/pos_terminal_status/pos_terminal_status.xlsx
+++ b/cards/pos_terminal_status/pos_terminal_status.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,44 +440,92 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>pst_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>pst_labe</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>431a9c04-da43-4101-8bbb-2cded7053cfb</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Inactive</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45511.2952790162</v>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/POS_TERMINAL_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45511.29527901154</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0e96ddbe-c889-48cb-bd2b-497b27b4d8d2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45511.2952790162</v>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/POS_TERMINAL_STATUS/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45511.29527901154</v>
       </c>
     </row>
   </sheetData>
